--- a/interest/makeMoney.xlsx
+++ b/interest/makeMoney.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="方法" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>赚钱方法</t>
   </si>
@@ -29,18 +29,33 @@
   <si>
     <t>用短视频做引流</t>
   </si>
+  <si>
+    <t>酒席团队</t>
+  </si>
+  <si>
+    <t>专门承办十里八乡的酒席业务</t>
+  </si>
+  <si>
+    <t>娱乐舞台团队</t>
+  </si>
+  <si>
+    <t>门窗上门安装</t>
+  </si>
+  <si>
+    <t>好日子算卦</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,14 +72,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,47 +148,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,76 +171,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,19 +217,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,103 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,55 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,10 +413,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -434,15 +440,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,153 +497,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,13 +1042,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="50.7777777777778" customWidth="1"/>
@@ -1052,6 +1060,29 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/interest/makeMoney.xlsx
+++ b/interest/makeMoney.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9467" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="方法" sheetId="1" r:id="rId1"/>
-    <sheet name="运营" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="way" sheetId="2" r:id="rId2"/>
+    <sheet name="摆摊" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>赚钱方法</t>
   </si>
@@ -24,10 +24,10 @@
     <t>开发字体，用字体版权向胖猪发律师函，要求下架视频，否则协商赔10万送一年使用权，一年后续费才能用</t>
   </si>
   <si>
-    <t>即时便利</t>
-  </si>
-  <si>
-    <t>用短视频做引流</t>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>即时便利，用短视频做引流</t>
   </si>
   <si>
     <t>酒席团队</t>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>好日子算卦</t>
+  </si>
+  <si>
+    <t>竹笋加工</t>
+  </si>
+  <si>
+    <t>章鱼小丸子</t>
+  </si>
+  <si>
+    <t>烧烤鸡腿</t>
+  </si>
+  <si>
+    <t>烤火腿</t>
+  </si>
+  <si>
+    <t>脆皮五花肉</t>
+  </si>
+  <si>
+    <t>烤番薯</t>
+  </si>
+  <si>
+    <t>手抓饼</t>
   </si>
 </sst>
 </file>
@@ -50,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,17 +93,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,108 +176,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,15 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -431,15 +443,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,17 +462,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +490,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -516,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,139 +549,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,7 +1037,7 @@
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1023,7 +1047,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1042,7 +1066,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1085,6 +1109,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1095,14 +1124,49 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
